--- a/Agile Document/Unit_Test_Plan_Filled_Exact_Format.xlsx
+++ b/Agile Document/Unit_Test_Plan_Filled_Exact_Format.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lavanya\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\live-ai-speech-translator\Agile Document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E61B8BE-87FA-4540-926E-76ACACDC5B6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{694C77D9-06DF-41F8-AC3C-926CB4A996DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -497,7 +497,7 @@
   <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1"/>
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -507,7 +507,7 @@
     <col min="3" max="3" width="42.88671875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="44.109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="37.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="30.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
